--- a/ChelseaJ_Week2Homework.xlsx
+++ b/ChelseaJ_Week2Homework.xlsx
@@ -5,22 +5,23 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chels\OneDrive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chels\code\savvyCoders\Homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8069D2F8-546B-42B7-A35F-02F7265AFF82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4F4F83-D428-4B3A-8044-4415E070BC75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13550" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Expenses" sheetId="1" r:id="rId1"/>
-    <sheet name="Payment" sheetId="6" r:id="rId2"/>
-    <sheet name="Roster" sheetId="2" r:id="rId3"/>
-    <sheet name="Credit Card Debt" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId1"/>
+    <sheet name="Expenses" sheetId="1" r:id="rId2"/>
+    <sheet name="Payment" sheetId="6" r:id="rId3"/>
+    <sheet name="Roster" sheetId="2" r:id="rId4"/>
+    <sheet name="Credit Card Debt" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="3" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="185">
   <si>
     <t>Expenses</t>
   </si>
@@ -552,17 +553,60 @@
   </si>
   <si>
     <t>Sum of Tax Inclusive Amount</t>
+  </si>
+  <si>
+    <t>&lt;3/2/2011</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>2011</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -613,6 +657,19 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1F2328"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF1F2328"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -656,7 +713,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -712,6 +769,33 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -719,135 +803,3249 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="56">
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
+  <dxfs count="1094">
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <alignment wrapText="1"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="m/d/yy;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="m/d/yy;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="m/d/yy;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="m/d/yy;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="m/d/yy;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="m/d/yy;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
     </dxf>
     <dxf>
       <font>
@@ -1325,24 +4523,37 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>Payment!$A$5:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2012</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:multiLvlStrRef>
+              <c:f>Payment!$A$5:$A$8</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="2"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Jan</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Feb</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2012</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Payment!$B$5:$B$6</c:f>
+              <c:f>Payment!$B$5:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>64894.25</c:v>
+                  <c:v>30270.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34624</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1378,24 +4589,37 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>Payment!$A$5:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2012</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:multiLvlStrRef>
+              <c:f>Payment!$A$5:$A$8</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="2"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Jan</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Feb</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2012</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Payment!$C$5:$C$6</c:f>
+              <c:f>Payment!$C$5:$C$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>70</c:v>
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1431,24 +4655,37 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>Payment!$A$5:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2012</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:multiLvlStrRef>
+              <c:f>Payment!$A$5:$A$8</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="2"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Jan</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Feb</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2012</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Payment!$D$5:$D$6</c:f>
+              <c:f>Payment!$D$5:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4355,16 +7592,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>11112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>87312</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4467,10 +7704,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6970,8 +10203,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{27682D91-2BEC-4388-935F-64D303CF8AA3}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A3:E6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{611FC123-28C3-401A-ACD3-D156460EC40B}" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:E21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField numFmtId="14" showAll="0"/>
     <pivotField showAll="0"/>
@@ -7121,7 +10354,7 @@
         <item sd="0" x="13"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+    <pivotField showAll="0" defaultSubtotal="0">
       <items count="6">
         <item sd="0" x="0"/>
         <item sd="0" x="1"/>
@@ -7133,21 +10366,352 @@
     </pivotField>
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
       <items count="4">
-        <item h="1" sd="0" x="0"/>
-        <item h="1" sd="0" x="1"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="11"/>
+    <field x="9"/>
+    <field x="8"/>
+  </rowFields>
+  <rowItems count="17">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="6"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Tax Inclusive Amount" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="6">
+    <format dxfId="521">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="520">
+      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="519">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="11" count="3">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="518">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="9" count="1">
+            <x v="0"/>
+          </reference>
+          <reference field="11" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="517">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="9" count="10">
+            <x v="3"/>
+            <x v="4"/>
+            <x v="5"/>
+            <x v="6"/>
+            <x v="7"/>
+            <x v="8"/>
+            <x v="9"/>
+            <x v="10"/>
+            <x v="11"/>
+            <x v="12"/>
+          </reference>
+          <reference field="11" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="516">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="9" count="2">
+            <x v="1"/>
+            <x v="2"/>
+          </reference>
+          <reference field="11" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{27682D91-2BEC-4388-935F-64D303CF8AA3}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Payment Date">
+  <location ref="A3:E8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="43" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="111">
+        <item h="1" x="0"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
+        <item h="1" x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="8"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="10"/>
+        <item h="1" x="11"/>
+        <item h="1" x="12"/>
+        <item h="1" x="14"/>
+        <item h="1" x="15"/>
+        <item h="1" x="16"/>
+        <item h="1" x="19"/>
+        <item h="1" x="9"/>
+        <item h="1" x="13"/>
+        <item h="1" x="21"/>
+        <item h="1" x="22"/>
+        <item h="1" x="24"/>
+        <item h="1" x="26"/>
+        <item h="1" x="17"/>
+        <item h="1" x="18"/>
+        <item h="1" x="20"/>
+        <item h="1" x="25"/>
+        <item h="1" x="28"/>
+        <item h="1" x="23"/>
+        <item h="1" x="29"/>
+        <item h="1" x="31"/>
+        <item h="1" x="32"/>
+        <item h="1" x="33"/>
+        <item h="1" x="34"/>
+        <item h="1" x="35"/>
+        <item h="1" x="27"/>
+        <item h="1" x="30"/>
+        <item h="1" x="38"/>
+        <item h="1" x="39"/>
+        <item h="1" x="41"/>
+        <item h="1" x="43"/>
+        <item h="1" x="45"/>
+        <item h="1" x="36"/>
+        <item h="1" x="37"/>
+        <item h="1" x="40"/>
+        <item h="1" x="47"/>
+        <item h="1" x="48"/>
+        <item h="1" x="50"/>
+        <item h="1" x="42"/>
+        <item h="1" x="52"/>
+        <item h="1" x="53"/>
+        <item h="1" x="44"/>
+        <item h="1" x="54"/>
+        <item h="1" x="55"/>
+        <item h="1" x="46"/>
+        <item h="1" x="51"/>
+        <item h="1" x="58"/>
+        <item h="1" x="49"/>
+        <item h="1" x="60"/>
+        <item h="1" x="62"/>
+        <item h="1" x="63"/>
+        <item h="1" x="64"/>
+        <item h="1" x="56"/>
+        <item h="1" x="66"/>
+        <item h="1" x="57"/>
+        <item h="1" x="61"/>
+        <item h="1" x="69"/>
+        <item h="1" x="70"/>
+        <item h="1" x="59"/>
+        <item h="1" x="71"/>
+        <item h="1" x="73"/>
+        <item h="1" x="65"/>
+        <item h="1" x="75"/>
+        <item h="1" x="76"/>
+        <item h="1" x="77"/>
+        <item h="1" x="67"/>
+        <item h="1" x="72"/>
+        <item h="1" x="68"/>
+        <item h="1" x="79"/>
+        <item h="1" x="81"/>
+        <item h="1" x="83"/>
+        <item h="1" x="84"/>
+        <item h="1" x="74"/>
+        <item h="1" x="85"/>
+        <item h="1" x="86"/>
+        <item h="1" x="78"/>
+        <item h="1" x="82"/>
+        <item h="1" x="80"/>
+        <item h="1" x="88"/>
+        <item h="1" x="89"/>
+        <item h="1" x="92"/>
+        <item h="1" x="94"/>
+        <item h="1" x="95"/>
+        <item h="1" x="87"/>
+        <item x="90"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="91"/>
+        <item x="100"/>
+        <item x="93"/>
+        <item x="101"/>
+        <item x="96"/>
+        <item x="99"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="102"/>
+        <item x="109"/>
+        <item h="1" x="103"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="14">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
         <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0">
+      <items count="6">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="4">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item x="2"/>
         <item sd="0" x="3"/>
       </items>
     </pivotField>
   </pivotFields>
-  <rowFields count="4">
+  <rowFields count="3">
     <field x="11"/>
-    <field x="10"/>
     <field x="9"/>
     <field x="8"/>
   </rowFields>
-  <rowItems count="2">
+  <rowItems count="4">
     <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
       <x v="2"/>
     </i>
     <i t="grand">
@@ -7175,10 +10739,10 @@
     <dataField name="Sum of Tax Inclusive Amount" fld="4" baseField="0" baseItem="0" numFmtId="44"/>
   </dataFields>
   <formats count="43">
-    <format dxfId="42">
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="41">
+    <format dxfId="1">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="6" count="1" selected="0">
@@ -7190,28 +10754,28 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="40">
+    <format dxfId="2">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="39">
+    <format dxfId="3">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="38">
+    <format dxfId="4">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="37">
+    <format dxfId="5">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="36">
+    <format dxfId="6">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="35">
+    <format dxfId="7">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="34">
+    <format dxfId="8">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="33">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="11" count="1">
@@ -7220,7 +10784,87 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="32">
+    <format dxfId="10">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="11">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="6" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="12">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="13">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="14">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="15">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="16">
+      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="17">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="18">
+      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="19">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="11" count="1">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="20">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="21">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="6" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="22">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="23">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="24">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="25">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="26">
+      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="27">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="28">
+      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="29">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="11" count="1">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="30">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
     <format dxfId="31">
@@ -7230,28 +10874,28 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="30">
+    <format dxfId="32">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="29">
+    <format dxfId="33">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="28">
+    <format dxfId="34">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="27">
+    <format dxfId="35">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="26">
+    <format dxfId="36">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="25">
+    <format dxfId="37">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="24">
+    <format dxfId="38">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="23">
+    <format dxfId="39">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="11" count="1">
@@ -7260,97 +10904,17 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="22">
+    <format dxfId="40">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="21">
+    <format dxfId="41">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="20">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="19">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="18">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="17">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="16">
-      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="15">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="14">
-      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="13">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="11" count="1">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="12">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="11">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="6" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="10">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="9">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="8">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="7">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="6">
-      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="5">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="4">
-      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="3">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="11" count="1">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="2">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="1">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="6" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="0">
+    <format dxfId="42">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -7405,18 +10969,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{37E3F18D-00FB-4C60-88FC-057CCF848EB0}" name="Table1" displayName="Table1" ref="A2:I210" totalsRowShown="0" headerRowDxfId="55" dataDxfId="53" headerRowBorderDxfId="54" tableBorderDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{37E3F18D-00FB-4C60-88FC-057CCF848EB0}" name="Table1" displayName="Table1" ref="A2:I210" totalsRowShown="0" headerRowDxfId="1093" dataDxfId="1091" headerRowBorderDxfId="1092" tableBorderDxfId="1090">
   <autoFilter ref="A2:I210" xr:uid="{37E3F18D-00FB-4C60-88FC-057CCF848EB0}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{DBD455AA-E872-48DC-8EF2-6CA286A3F78B}" name="Document Date" dataDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{A0200FAD-68FE-43C0-AC98-9CE8517547F9}" name="Document Date2" dataDxfId="50"/>
-    <tableColumn id="3" xr3:uid="{272B09F7-6A5A-4D18-B549-0A68F1FA61B1}" name="Document Date3" dataDxfId="49"/>
-    <tableColumn id="4" xr3:uid="{AF5E70AC-D017-4B0C-AF09-A6BCC5DA0855}" name="Document Date4" dataDxfId="48"/>
-    <tableColumn id="5" xr3:uid="{859E81D0-0AA0-48C3-A776-E97DD68330DE}" name="Tax Inclusive Amount" dataDxfId="47" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{A15DE1E7-FB01-4C6C-8A73-CBB60D56405B}" name="Column5" dataDxfId="46"/>
-    <tableColumn id="7" xr3:uid="{7A352C55-B966-452B-BABB-F1EE8B6C138E}" name="Bank Code" dataDxfId="45"/>
-    <tableColumn id="8" xr3:uid="{84D18AEB-DFF4-4C92-9280-2FFC590B749B}" name="Account Code" dataDxfId="44"/>
-    <tableColumn id="9" xr3:uid="{C2ACD1B2-0AFA-4C87-BD13-6F8788044D59}" name="Payment Date" dataDxfId="43"/>
+    <tableColumn id="1" xr3:uid="{DBD455AA-E872-48DC-8EF2-6CA286A3F78B}" name="Document Date" dataDxfId="1089"/>
+    <tableColumn id="2" xr3:uid="{A0200FAD-68FE-43C0-AC98-9CE8517547F9}" name="Document Date2" dataDxfId="1088"/>
+    <tableColumn id="3" xr3:uid="{272B09F7-6A5A-4D18-B549-0A68F1FA61B1}" name="Document Date3" dataDxfId="1087"/>
+    <tableColumn id="4" xr3:uid="{AF5E70AC-D017-4B0C-AF09-A6BCC5DA0855}" name="Document Date4" dataDxfId="1086"/>
+    <tableColumn id="5" xr3:uid="{859E81D0-0AA0-48C3-A776-E97DD68330DE}" name="Tax Inclusive Amount" dataDxfId="1085" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{A15DE1E7-FB01-4C6C-8A73-CBB60D56405B}" name="Column5" dataDxfId="1084"/>
+    <tableColumn id="7" xr3:uid="{7A352C55-B966-452B-BABB-F1EE8B6C138E}" name="Bank Code" dataDxfId="1083"/>
+    <tableColumn id="8" xr3:uid="{84D18AEB-DFF4-4C92-9280-2FFC590B749B}" name="Account Code" dataDxfId="1082"/>
+    <tableColumn id="9" xr3:uid="{C2ACD1B2-0AFA-4C87-BD13-6F8788044D59}" name="Payment Date" dataDxfId="1081"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7718,11 +11282,319 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61AF9A6B-B16C-4FCC-A09E-B73072686534}">
+  <dimension ref="A3:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="B6" s="30">
+        <v>11468</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30">
+        <v>11468</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="B8" s="30">
+        <v>27689</v>
+      </c>
+      <c r="C8" s="30">
+        <v>-1965</v>
+      </c>
+      <c r="D8" s="30">
+        <v>-10</v>
+      </c>
+      <c r="E8" s="30">
+        <v>25714</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="B9" s="30">
+        <v>30018</v>
+      </c>
+      <c r="C9" s="30">
+        <v>35</v>
+      </c>
+      <c r="D9" s="30">
+        <v>-13</v>
+      </c>
+      <c r="E9" s="30">
+        <v>30040</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="B10" s="30">
+        <v>32381</v>
+      </c>
+      <c r="C10" s="30">
+        <v>35</v>
+      </c>
+      <c r="D10" s="30">
+        <v>6</v>
+      </c>
+      <c r="E10" s="30">
+        <v>32422</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="B11" s="30">
+        <v>39704</v>
+      </c>
+      <c r="C11" s="30">
+        <v>35</v>
+      </c>
+      <c r="D11" s="30">
+        <v>10</v>
+      </c>
+      <c r="E11" s="30">
+        <v>39749</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="B12" s="30">
+        <v>28548</v>
+      </c>
+      <c r="C12" s="30">
+        <v>35</v>
+      </c>
+      <c r="D12" s="30">
+        <v>-21</v>
+      </c>
+      <c r="E12" s="30">
+        <v>28562</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="B13" s="30">
+        <v>46295</v>
+      </c>
+      <c r="C13" s="30">
+        <v>35</v>
+      </c>
+      <c r="D13" s="30">
+        <v>28</v>
+      </c>
+      <c r="E13" s="30">
+        <v>46358</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="B14" s="30">
+        <v>47341</v>
+      </c>
+      <c r="C14" s="30">
+        <v>35</v>
+      </c>
+      <c r="D14" s="30">
+        <v>-10</v>
+      </c>
+      <c r="E14" s="30">
+        <v>47366</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="B15" s="30">
+        <v>38404.479999999996</v>
+      </c>
+      <c r="C15" s="30">
+        <v>35</v>
+      </c>
+      <c r="D15" s="30">
+        <v>18</v>
+      </c>
+      <c r="E15" s="30">
+        <v>38457.479999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="B16" s="30">
+        <v>28599</v>
+      </c>
+      <c r="C16" s="30">
+        <v>35</v>
+      </c>
+      <c r="D16" s="30">
+        <v>-6</v>
+      </c>
+      <c r="E16" s="30">
+        <v>28628</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="B17" s="30">
+        <v>37980</v>
+      </c>
+      <c r="C17" s="30">
+        <v>35</v>
+      </c>
+      <c r="D17" s="30">
+        <v>-4</v>
+      </c>
+      <c r="E17" s="30">
+        <v>38011</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="B19" s="30">
+        <v>30270.25</v>
+      </c>
+      <c r="C19" s="30">
+        <v>35</v>
+      </c>
+      <c r="D19" s="30">
+        <v>-4</v>
+      </c>
+      <c r="E19" s="30">
+        <v>30301.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="B20" s="30">
+        <v>34624</v>
+      </c>
+      <c r="C20" s="30">
+        <v>35</v>
+      </c>
+      <c r="D20" s="30">
+        <v>5</v>
+      </c>
+      <c r="E20" s="30">
+        <v>34664</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="B21" s="30">
+        <v>433321.73</v>
+      </c>
+      <c r="C21" s="30">
+        <v>-1580</v>
+      </c>
+      <c r="D21" s="30">
+        <v>-1</v>
+      </c>
+      <c r="E21" s="30">
+        <v>431740.73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I210"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection sqref="A1:XFD210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13806,17 +17678,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAA88385-1EC9-441F-AE89-8FC1CE99291F}">
-  <dimension ref="A3:E6"/>
+  <dimension ref="A3:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="A3:E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -13832,7 +17708,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>162</v>
+        <v>5</v>
       </c>
       <c r="B4" s="23" t="s">
         <v>10</v>
@@ -13851,33 +17727,59 @@
       <c r="A5" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="24"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="B6" s="24">
+        <v>30270.25</v>
+      </c>
+      <c r="C6" s="24">
+        <v>35</v>
+      </c>
+      <c r="D6" s="24">
+        <v>-4</v>
+      </c>
+      <c r="E6" s="24">
+        <v>30301.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="B7" s="24">
+        <v>34624</v>
+      </c>
+      <c r="C7" s="24">
+        <v>35</v>
+      </c>
+      <c r="D7" s="24">
+        <v>5</v>
+      </c>
+      <c r="E7" s="24">
+        <v>34664</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="B8" s="24">
         <v>64894.25</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C8" s="24">
         <v>70</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D8" s="24">
         <v>1</v>
       </c>
-      <c r="E5" s="24">
-        <v>64965.25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="B6" s="24">
-        <v>64894.25</v>
-      </c>
-      <c r="C6" s="24">
-        <v>70</v>
-      </c>
-      <c r="D6" s="24">
-        <v>1</v>
-      </c>
-      <c r="E6" s="24">
+      <c r="E8" s="24">
         <v>64965.25</v>
       </c>
     </row>
@@ -13887,12 +17789,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF05046B-6AA4-4DBF-9879-11EDE7865534}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13903,12 +17805,12 @@
     <col min="6" max="6" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B3" s="15" t="s">
         <v>126</v>
       </c>
@@ -13922,7 +17824,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>130</v>
       </c>
@@ -13935,8 +17837,13 @@
       <c r="E4" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+    </row>
+    <row r="5" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>131</v>
       </c>
@@ -13949,8 +17856,12 @@
       <c r="E5" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="25"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+    </row>
+    <row r="6" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>132</v>
       </c>
@@ -13963,8 +17874,12 @@
       <c r="E6" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="25"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+    </row>
+    <row r="7" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>133</v>
       </c>
@@ -13977,8 +17892,12 @@
       <c r="E7" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="25"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+    </row>
+    <row r="8" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>134</v>
       </c>
@@ -13991,8 +17910,11 @@
       <c r="E8" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G8" s="26"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+    </row>
+    <row r="9" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>135</v>
       </c>
@@ -14005,8 +17927,11 @@
       <c r="E9" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G9" s="26"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+    </row>
+    <row r="10" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>136</v>
       </c>
@@ -14019,8 +17944,11 @@
       <c r="E10" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G10" s="26"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+    </row>
+    <row r="11" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>137</v>
       </c>
@@ -14033,8 +17961,11 @@
       <c r="E11" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G11" s="26"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+    </row>
+    <row r="12" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>138</v>
       </c>
@@ -14047,8 +17978,11 @@
       <c r="E12" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G12" s="26"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+    </row>
+    <row r="13" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>139</v>
       </c>
@@ -14061,8 +17995,11 @@
       <c r="E13" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G13" s="26"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+    </row>
+    <row r="14" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>140</v>
       </c>
@@ -14075,8 +18012,16 @@
       <c r="E14" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G14" s="26"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+    </row>
+    <row r="15" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="G15" s="26"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+    </row>
+    <row r="16" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>143</v>
       </c>
@@ -14088,6 +18033,7 @@
         <f>MIN(D4:D14)</f>
         <v>60</v>
       </c>
+      <c r="I16" s="27"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -14163,12 +18109,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC298FE8-BADC-441E-8822-D85172FE222D}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14227,7 +18173,7 @@
         <f>B4*C4</f>
         <v>420</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="18">
         <f>B4+E4</f>
         <v>2420</v>
       </c>
@@ -14253,7 +18199,7 @@
         <f t="shared" ref="E5:E8" si="0">B5*C5</f>
         <v>112.5</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="18">
         <f t="shared" ref="F5:F8" si="1">B5+E5</f>
         <v>562.5</v>
       </c>
@@ -14279,7 +18225,7 @@
         <f t="shared" si="0"/>
         <v>263.25</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="18">
         <f t="shared" si="1"/>
         <v>1238.25</v>
       </c>
@@ -14305,7 +18251,7 @@
         <f t="shared" si="0"/>
         <v>225</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="18">
         <f t="shared" si="1"/>
         <v>1725</v>
       </c>
@@ -14331,7 +18277,7 @@
         <f t="shared" si="0"/>
         <v>195</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="18">
         <f t="shared" si="1"/>
         <v>975</v>
       </c>

--- a/ChelseaJ_Week2Homework.xlsx
+++ b/ChelseaJ_Week2Homework.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chels\code\savvyCoders\Homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4F4F83-D428-4B3A-8044-4415E070BC75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC2C38E-59C3-466E-98E8-34FC41763411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13550" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="7" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </sheets>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -604,7 +604,7 @@
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -713,7 +713,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -782,18 +782,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
@@ -803,46 +799,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1094">
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
+  <dxfs count="62">
     <dxf>
       <alignment vertical="center"/>
     </dxf>
@@ -934,15 +891,6 @@
       <alignment vertical="center"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
@@ -973,3079 +921,13 @@
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <alignment wrapText="1"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="m/d/yy;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="m/d/yy;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="m/d/yy;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="m/d/yy;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="m/d/yy;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="m/d/yy;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
     </dxf>
     <dxf>
       <font>
@@ -4289,6 +1171,24 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -10203,7 +7103,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{611FC123-28C3-401A-ACD3-D156460EC40B}" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{611FC123-28C3-401A-ACD3-D156460EC40B}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField numFmtId="14" showAll="0"/>
@@ -10452,13 +7352,13 @@
     <dataField name="Sum of Tax Inclusive Amount" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="521">
+    <format dxfId="61">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="520">
+    <format dxfId="60">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="519">
+    <format dxfId="59">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="11" count="3">
@@ -10469,7 +7369,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="518">
+    <format dxfId="58">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="9" count="1">
@@ -10481,7 +7381,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="517">
+    <format dxfId="57">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="9" count="10">
@@ -10502,7 +7402,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="516">
+    <format dxfId="56">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="9" count="2">
@@ -10529,7 +7429,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{27682D91-2BEC-4388-935F-64D303CF8AA3}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Payment Date">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{27682D91-2BEC-4388-935F-64D303CF8AA3}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Payment Date">
   <location ref="A3:E8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField numFmtId="14" showAll="0"/>
@@ -10739,10 +7639,10 @@
     <dataField name="Sum of Tax Inclusive Amount" fld="4" baseField="0" baseItem="0" numFmtId="44"/>
   </dataFields>
   <formats count="43">
-    <format dxfId="0">
+    <format dxfId="42">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="41">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="6" count="1" selected="0">
@@ -10754,28 +7654,28 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="40">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="39">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="38">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="37">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="6">
+    <format dxfId="36">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="35">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="34">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="33">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="11" count="1">
@@ -10784,7 +7684,87 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="32">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="31">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="6" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="30">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="29">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="28">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="27">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="26">
+      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="25">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="24">
+      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="23">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="11" count="1">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="22">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="21">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="6" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="20">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="19">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="18">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="17">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="16">
+      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="15">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="14">
+      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="13">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="11" count="1">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
     <format dxfId="11">
@@ -10794,28 +7774,28 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="9">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="8">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="15">
+    <format dxfId="7">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="6">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="5">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="4">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="11" count="1">
@@ -10824,97 +7804,17 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="20">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="21">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="22">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="23">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="24">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="25">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="26">
-      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="27">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="28">
-      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="29">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="11" count="1">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="30">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="31">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="6" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="32">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="33">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="34">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="35">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="36">
-      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="37">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="38">
-      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="39">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="11" count="1">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="40">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="41">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="6" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="42">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -10969,18 +7869,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{37E3F18D-00FB-4C60-88FC-057CCF848EB0}" name="Table1" displayName="Table1" ref="A2:I210" totalsRowShown="0" headerRowDxfId="1093" dataDxfId="1091" headerRowBorderDxfId="1092" tableBorderDxfId="1090">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{37E3F18D-00FB-4C60-88FC-057CCF848EB0}" name="Table1" displayName="Table1" ref="A2:I210" totalsRowShown="0" headerRowDxfId="55" dataDxfId="53" headerRowBorderDxfId="54" tableBorderDxfId="52">
   <autoFilter ref="A2:I210" xr:uid="{37E3F18D-00FB-4C60-88FC-057CCF848EB0}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{DBD455AA-E872-48DC-8EF2-6CA286A3F78B}" name="Document Date" dataDxfId="1089"/>
-    <tableColumn id="2" xr3:uid="{A0200FAD-68FE-43C0-AC98-9CE8517547F9}" name="Document Date2" dataDxfId="1088"/>
-    <tableColumn id="3" xr3:uid="{272B09F7-6A5A-4D18-B549-0A68F1FA61B1}" name="Document Date3" dataDxfId="1087"/>
-    <tableColumn id="4" xr3:uid="{AF5E70AC-D017-4B0C-AF09-A6BCC5DA0855}" name="Document Date4" dataDxfId="1086"/>
-    <tableColumn id="5" xr3:uid="{859E81D0-0AA0-48C3-A776-E97DD68330DE}" name="Tax Inclusive Amount" dataDxfId="1085" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{A15DE1E7-FB01-4C6C-8A73-CBB60D56405B}" name="Column5" dataDxfId="1084"/>
-    <tableColumn id="7" xr3:uid="{7A352C55-B966-452B-BABB-F1EE8B6C138E}" name="Bank Code" dataDxfId="1083"/>
-    <tableColumn id="8" xr3:uid="{84D18AEB-DFF4-4C92-9280-2FFC590B749B}" name="Account Code" dataDxfId="1082"/>
-    <tableColumn id="9" xr3:uid="{C2ACD1B2-0AFA-4C87-BD13-6F8788044D59}" name="Payment Date" dataDxfId="1081"/>
+    <tableColumn id="1" xr3:uid="{DBD455AA-E872-48DC-8EF2-6CA286A3F78B}" name="Document Date" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{A0200FAD-68FE-43C0-AC98-9CE8517547F9}" name="Document Date2" dataDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{272B09F7-6A5A-4D18-B549-0A68F1FA61B1}" name="Document Date3" dataDxfId="49"/>
+    <tableColumn id="4" xr3:uid="{AF5E70AC-D017-4B0C-AF09-A6BCC5DA0855}" name="Document Date4" dataDxfId="48"/>
+    <tableColumn id="5" xr3:uid="{859E81D0-0AA0-48C3-A776-E97DD68330DE}" name="Tax Inclusive Amount" dataDxfId="47" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{A15DE1E7-FB01-4C6C-8A73-CBB60D56405B}" name="Column5" dataDxfId="46"/>
+    <tableColumn id="7" xr3:uid="{7A352C55-B966-452B-BABB-F1EE8B6C138E}" name="Bank Code" dataDxfId="45"/>
+    <tableColumn id="8" xr3:uid="{84D18AEB-DFF4-4C92-9280-2FFC590B749B}" name="Account Code" dataDxfId="44"/>
+    <tableColumn id="9" xr3:uid="{C2ACD1B2-0AFA-4C87-BD13-6F8788044D59}" name="Payment Date" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11299,7 +8199,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="31" t="s">
         <v>170</v>
       </c>
       <c r="B3" s="28" t="s">
@@ -11307,7 +8207,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="31" t="s">
         <v>162</v>
       </c>
       <c r="B4" t="s">
@@ -11324,246 +8224,232 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B6">
         <v>11468</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30">
+      <c r="E6">
         <v>11468</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="32" t="s">
         <v>184</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8">
         <v>27689</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8">
         <v>-1965</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8">
         <v>-10</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8">
         <v>25714</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="B9" s="30">
+      <c r="B9">
         <v>30018</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C9">
         <v>35</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9">
         <v>-13</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9">
         <v>30040</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="B10" s="30">
+      <c r="B10">
         <v>32381</v>
       </c>
-      <c r="C10" s="30">
+      <c r="C10">
         <v>35</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10">
         <v>6</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10">
         <v>32422</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="B11" s="30">
+      <c r="B11">
         <v>39704</v>
       </c>
-      <c r="C11" s="30">
+      <c r="C11">
         <v>35</v>
       </c>
-      <c r="D11" s="30">
+      <c r="D11">
         <v>10</v>
       </c>
-      <c r="E11" s="30">
+      <c r="E11">
         <v>39749</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="B12" s="30">
+      <c r="B12">
         <v>28548</v>
       </c>
-      <c r="C12" s="30">
+      <c r="C12">
         <v>35</v>
       </c>
-      <c r="D12" s="30">
+      <c r="D12">
         <v>-21</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E12">
         <v>28562</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="B13" s="30">
+      <c r="B13">
         <v>46295</v>
       </c>
-      <c r="C13" s="30">
+      <c r="C13">
         <v>35</v>
       </c>
-      <c r="D13" s="30">
+      <c r="D13">
         <v>28</v>
       </c>
-      <c r="E13" s="30">
+      <c r="E13">
         <v>46358</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="B14" s="30">
+      <c r="B14">
         <v>47341</v>
       </c>
-      <c r="C14" s="30">
+      <c r="C14">
         <v>35</v>
       </c>
-      <c r="D14" s="30">
+      <c r="D14">
         <v>-10</v>
       </c>
-      <c r="E14" s="30">
+      <c r="E14">
         <v>47366</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="B15" s="30">
+      <c r="B15">
         <v>38404.479999999996</v>
       </c>
-      <c r="C15" s="30">
+      <c r="C15">
         <v>35</v>
       </c>
-      <c r="D15" s="30">
+      <c r="D15">
         <v>18</v>
       </c>
-      <c r="E15" s="30">
+      <c r="E15">
         <v>38457.479999999996</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="B16" s="30">
+      <c r="B16">
         <v>28599</v>
       </c>
-      <c r="C16" s="30">
+      <c r="C16">
         <v>35</v>
       </c>
-      <c r="D16" s="30">
+      <c r="D16">
         <v>-6</v>
       </c>
-      <c r="E16" s="30">
+      <c r="E16">
         <v>28628</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="B17" s="30">
+      <c r="B17">
         <v>37980</v>
       </c>
-      <c r="C17" s="30">
+      <c r="C17">
         <v>35</v>
       </c>
-      <c r="D17" s="30">
+      <c r="D17">
         <v>-4</v>
       </c>
-      <c r="E17" s="30">
+      <c r="E17">
         <v>38011</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="B19" s="30">
+      <c r="B19">
         <v>30270.25</v>
       </c>
-      <c r="C19" s="30">
+      <c r="C19">
         <v>35</v>
       </c>
-      <c r="D19" s="30">
+      <c r="D19">
         <v>-4</v>
       </c>
-      <c r="E19" s="30">
+      <c r="E19">
         <v>30301.25</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="B20" s="30">
+      <c r="B20">
         <v>34624</v>
       </c>
-      <c r="C20" s="30">
+      <c r="C20">
         <v>35</v>
       </c>
-      <c r="D20" s="30">
+      <c r="D20">
         <v>5</v>
       </c>
-      <c r="E20" s="30">
+      <c r="E20">
         <v>34664</v>
       </c>
     </row>
@@ -11571,16 +8457,16 @@
       <c r="A21" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="B21" s="30">
+      <c r="B21">
         <v>433321.73</v>
       </c>
-      <c r="C21" s="30">
+      <c r="C21">
         <v>-1580</v>
       </c>
-      <c r="D21" s="30">
+      <c r="D21">
         <v>-1</v>
       </c>
-      <c r="E21" s="30">
+      <c r="E21">
         <v>431740.73</v>
       </c>
     </row>
@@ -17728,12 +14614,12 @@
         <v>165</v>
       </c>
       <c r="B5" s="24"/>
-      <c r="C5" s="31"/>
+      <c r="C5" s="23"/>
       <c r="D5" s="24"/>
       <c r="E5" s="24"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="30" t="s">
         <v>172</v>
       </c>
       <c r="B6" s="24">
@@ -17750,7 +14636,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="30" t="s">
         <v>173</v>
       </c>
       <c r="B7" s="24">
@@ -17794,7 +14680,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18092,8 +14978,8 @@
         <v>148</v>
       </c>
       <c r="B21">
-        <f>COUNT(B4:B14)</f>
-        <v>0</v>
+        <f>COUNTA(B4:B14)</f>
+        <v>11</v>
       </c>
       <c r="C21">
         <f>COUNT(C4:C14)</f>
